--- a/Stimulus code/PIPmanip_loop.xlsx
+++ b/Stimulus code/PIPmanip_loop.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2B8E8-4DEB-3542-B2E5-46C9D0F23554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>trial_type</t>
   </si>
@@ -42,18 +43,9 @@
     <t>circle</t>
   </si>
   <si>
-    <t>pip1</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>pip2</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -63,28 +55,22 @@
     <t>square</t>
   </si>
   <si>
-    <t>catch_go</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>catch_stop</t>
-  </si>
-  <si>
     <t>STOP</t>
   </si>
   <si>
-    <t>triangle</t>
+    <t>pip3</t>
+  </si>
+  <si>
+    <t>pip4</t>
+  </si>
+  <si>
+    <t>catch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,16 +381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -429,16 +415,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -446,16 +432,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -463,16 +449,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,183 +466,115 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E11" t="s">
         <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Stimulus code/PIPmanip_loop.xlsx
+++ b/Stimulus code/PIPmanip_loop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2B8E8-4DEB-3542-B2E5-46C9D0F23554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48750C85-8B1A-5547-9492-A2A21B0A2B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>trial_type</t>
   </si>
@@ -37,9 +37,6 @@
     <t>incorrect_response</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>circle</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>blank</t>
   </si>
   <si>
-    <t>no-go</t>
-  </si>
-  <si>
     <t>square</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>pip4</t>
-  </si>
-  <si>
-    <t>catch</t>
   </si>
 </sst>
 </file>
@@ -385,7 +376,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -408,173 +399,173 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="E11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
